--- a/Teams/Fulham_stats.xlsx
+++ b/Teams/Fulham_stats.xlsx
@@ -8,15 +8,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Matches" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StandardStats" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ShootingStats" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PassingStats" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PassTypes" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GoalShotCreation" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DefensiveActions" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Standard Stats" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Shooting Stats" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Passing Stats" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pass Types" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Goal &amp; Shot Creation" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Defensive Actions" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Possession" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PlayingTime" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MiscStats" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Playing Time" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Miscellaneous Stats" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4498,7 +4498,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>33-016</t>
+          <t>33-017</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -4579,7 +4579,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>27-224</t>
+          <t>27-225</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -4660,7 +4660,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>28-321</t>
+          <t>28-322</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -4741,7 +4741,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>25-079</t>
+          <t>25-080</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -4822,7 +4822,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>33-319</t>
+          <t>33-320</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -4903,7 +4903,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>24-235</t>
+          <t>24-236</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>28-219</t>
+          <t>28-220</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>28-293</t>
+          <t>28-294</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -5146,7 +5146,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>29-078</t>
+          <t>29-079</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -5227,7 +5227,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>27-034</t>
+          <t>27-035</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -5308,7 +5308,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>29-054</t>
+          <t>29-055</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -5389,7 +5389,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>29-162</t>
+          <t>29-163</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -5470,7 +5470,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>29-105</t>
+          <t>29-106</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -5551,7 +5551,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>28-070</t>
+          <t>28-071</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -5632,7 +5632,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>27-363</t>
+          <t>27-364</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -5713,7 +5713,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>23-320</t>
+          <t>23-321</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -5794,7 +5794,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>25-100</t>
+          <t>25-101</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -5875,7 +5875,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>34-059</t>
+          <t>34-060</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -5956,7 +5956,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>25-123</t>
+          <t>25-124</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -6037,7 +6037,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>36-223</t>
+          <t>36-224</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -6118,7 +6118,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>24-306</t>
+          <t>24-307</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -6199,7 +6199,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>18-076</t>
+          <t>18-077</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -6278,7 +6278,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>30-052</t>
+          <t>30-053</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -6359,7 +6359,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>22-006</t>
+          <t>22-007</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -6440,7 +6440,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>29-360</t>
+          <t>29-361</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -6519,7 +6519,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>22-116</t>
+          <t>22-117</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -6762,14 +6762,10 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 4_level_0</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>Playing Time</t>
         </is>
       </c>
+      <c r="G1" s="1" t="n"/>
       <c r="H1" s="1" t="n"/>
       <c r="I1" s="1" t="n"/>
       <c r="J1" s="1" t="inlineStr">
@@ -7013,7 +7009,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>33-016</t>
+          <t>33-017</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -7130,7 +7126,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>27-224</t>
+          <t>27-225</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -7247,7 +7243,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>28-321</t>
+          <t>28-322</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -7364,7 +7360,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>25-079</t>
+          <t>25-080</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -7481,7 +7477,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>33-319</t>
+          <t>33-320</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -7598,7 +7594,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>24-235</t>
+          <t>24-236</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -7715,7 +7711,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>28-219</t>
+          <t>28-220</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -7832,7 +7828,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>28-293</t>
+          <t>28-294</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -7949,7 +7945,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>29-078</t>
+          <t>29-079</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -8066,7 +8062,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>27-034</t>
+          <t>27-035</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -8183,7 +8179,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>29-054</t>
+          <t>29-055</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -8300,7 +8296,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>29-162</t>
+          <t>29-163</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -8417,7 +8413,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>29-105</t>
+          <t>29-106</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -8534,7 +8530,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>28-070</t>
+          <t>28-071</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -8651,7 +8647,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>27-363</t>
+          <t>27-364</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -8768,7 +8764,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>23-320</t>
+          <t>23-321</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -8885,7 +8881,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>25-100</t>
+          <t>25-101</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -9002,7 +8998,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>34-059</t>
+          <t>34-060</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -9119,7 +9115,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>25-123</t>
+          <t>25-124</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -9236,7 +9232,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>36-223</t>
+          <t>36-224</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -9353,7 +9349,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>24-306</t>
+          <t>24-307</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -9470,7 +9466,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>18-076</t>
+          <t>18-077</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -9587,7 +9583,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>30-052</t>
+          <t>30-053</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -9704,7 +9700,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>22-006</t>
+          <t>22-007</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -9821,7 +9817,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>29-360</t>
+          <t>29-361</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -9938,7 +9934,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>22-116</t>
+          <t>22-117</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -10055,7 +10051,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>18-013</t>
+          <t>18-014</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -10118,7 +10114,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>26-170</t>
+          <t>26-171</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -10373,9 +10369,9 @@
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="Y1:AH1"/>
+    <mergeCell ref="F1:I1"/>
     <mergeCell ref="R1:U1"/>
     <mergeCell ref="J1:Q1"/>
-    <mergeCell ref="G1:I1"/>
     <mergeCell ref="V1:X1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10593,7 +10589,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>33-016</t>
+          <t>33-017</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -10667,7 +10663,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>27-224</t>
+          <t>27-225</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -10751,7 +10747,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>28-321</t>
+          <t>28-322</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -10835,7 +10831,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>25-079</t>
+          <t>25-080</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -10919,7 +10915,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>33-319</t>
+          <t>33-320</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -11003,7 +10999,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>24-235</t>
+          <t>24-236</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -11087,7 +11083,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>28-219</t>
+          <t>28-220</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -11171,7 +11167,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>28-293</t>
+          <t>28-294</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -11255,7 +11251,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>29-078</t>
+          <t>29-079</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -11339,7 +11335,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>27-034</t>
+          <t>27-035</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -11421,7 +11417,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>29-054</t>
+          <t>29-055</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -11505,7 +11501,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>29-162</t>
+          <t>29-163</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -11589,7 +11585,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>29-105</t>
+          <t>29-106</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -11673,7 +11669,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>28-070</t>
+          <t>28-071</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -11757,7 +11753,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>27-363</t>
+          <t>27-364</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -11841,7 +11837,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>23-320</t>
+          <t>23-321</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -11925,7 +11921,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>25-100</t>
+          <t>25-101</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -12009,7 +12005,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>34-059</t>
+          <t>34-060</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -12093,7 +12089,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>25-123</t>
+          <t>25-124</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -12167,7 +12163,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>36-223</t>
+          <t>36-224</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -12249,7 +12245,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>24-306</t>
+          <t>24-307</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -12333,7 +12329,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>18-076</t>
+          <t>18-077</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -12415,7 +12411,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>30-052</t>
+          <t>30-053</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -12499,7 +12495,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>22-006</t>
+          <t>22-007</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -12573,7 +12569,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>29-360</t>
+          <t>29-361</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -12657,7 +12653,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>22-116</t>
+          <t>22-117</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -13150,7 +13146,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>33-016</t>
+          <t>33-017</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -13252,7 +13248,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>27-224</t>
+          <t>27-225</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -13354,7 +13350,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>28-321</t>
+          <t>28-322</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -13456,7 +13452,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>25-079</t>
+          <t>25-080</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -13558,7 +13554,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>33-319</t>
+          <t>33-320</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -13660,7 +13656,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>24-235</t>
+          <t>24-236</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -13762,7 +13758,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>28-219</t>
+          <t>28-220</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -13864,7 +13860,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>28-293</t>
+          <t>28-294</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -13966,7 +13962,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>29-078</t>
+          <t>29-079</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -14068,7 +14064,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>27-034</t>
+          <t>27-035</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -14170,7 +14166,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>29-054</t>
+          <t>29-055</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -14272,7 +14268,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>29-162</t>
+          <t>29-163</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -14374,7 +14370,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>29-105</t>
+          <t>29-106</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -14476,7 +14472,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>28-070</t>
+          <t>28-071</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -14578,7 +14574,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>27-363</t>
+          <t>27-364</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -14680,7 +14676,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>23-320</t>
+          <t>23-321</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -14782,7 +14778,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>25-100</t>
+          <t>25-101</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -14884,7 +14880,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>34-059</t>
+          <t>34-060</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -14986,7 +14982,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>25-123</t>
+          <t>25-124</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -15088,7 +15084,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>36-223</t>
+          <t>36-224</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -15190,7 +15186,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>24-306</t>
+          <t>24-307</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -15292,7 +15288,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>18-076</t>
+          <t>18-077</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -15394,7 +15390,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>30-052</t>
+          <t>30-053</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -15496,7 +15492,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>22-006</t>
+          <t>22-007</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -15598,7 +15594,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>29-360</t>
+          <t>29-361</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -15696,7 +15692,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>22-116</t>
+          <t>22-117</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -16168,7 +16164,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>33-016</t>
+          <t>33-017</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -16246,7 +16242,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>27-224</t>
+          <t>27-225</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -16324,7 +16320,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>28-321</t>
+          <t>28-322</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -16402,7 +16398,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>25-079</t>
+          <t>25-080</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -16480,7 +16476,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>33-319</t>
+          <t>33-320</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -16558,7 +16554,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>24-235</t>
+          <t>24-236</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -16636,7 +16632,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>28-219</t>
+          <t>28-220</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -16714,7 +16710,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>28-293</t>
+          <t>28-294</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -16792,7 +16788,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>29-078</t>
+          <t>29-079</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -16870,7 +16866,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>27-034</t>
+          <t>27-035</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -16948,7 +16944,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>29-054</t>
+          <t>29-055</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -17026,7 +17022,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>29-162</t>
+          <t>29-163</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -17104,7 +17100,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>29-105</t>
+          <t>29-106</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -17182,7 +17178,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>28-070</t>
+          <t>28-071</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -17260,7 +17256,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>27-363</t>
+          <t>27-364</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -17338,7 +17334,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>23-320</t>
+          <t>23-321</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -17416,7 +17412,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>25-100</t>
+          <t>25-101</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -17494,7 +17490,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>34-059</t>
+          <t>34-060</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -17572,7 +17568,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>25-123</t>
+          <t>25-124</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -17650,7 +17646,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>36-223</t>
+          <t>36-224</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -17728,7 +17724,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>24-306</t>
+          <t>24-307</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -17806,7 +17802,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>18-076</t>
+          <t>18-077</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -17884,7 +17880,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>30-052</t>
+          <t>30-053</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -17962,7 +17958,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>22-006</t>
+          <t>22-007</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -18040,7 +18036,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>29-360</t>
+          <t>29-361</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -18118,7 +18114,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>22-116</t>
+          <t>22-117</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -18530,7 +18526,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>33-016</t>
+          <t>33-017</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -18611,7 +18607,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>27-224</t>
+          <t>27-225</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -18692,7 +18688,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>28-321</t>
+          <t>28-322</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -18773,7 +18769,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>25-079</t>
+          <t>25-080</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -18854,7 +18850,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>33-319</t>
+          <t>33-320</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -18935,7 +18931,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>24-235</t>
+          <t>24-236</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -19016,7 +19012,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>28-219</t>
+          <t>28-220</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -19097,7 +19093,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>28-293</t>
+          <t>28-294</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -19178,7 +19174,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>29-078</t>
+          <t>29-079</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -19259,7 +19255,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>27-034</t>
+          <t>27-035</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -19340,7 +19336,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>29-054</t>
+          <t>29-055</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -19421,7 +19417,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>29-162</t>
+          <t>29-163</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -19502,7 +19498,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>29-105</t>
+          <t>29-106</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -19583,7 +19579,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>28-070</t>
+          <t>28-071</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -19664,7 +19660,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>27-363</t>
+          <t>27-364</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -19745,7 +19741,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>23-320</t>
+          <t>23-321</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -19826,7 +19822,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>25-100</t>
+          <t>25-101</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -19907,7 +19903,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>34-059</t>
+          <t>34-060</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -19988,7 +19984,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>25-123</t>
+          <t>25-124</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -20069,7 +20065,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>36-223</t>
+          <t>36-224</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -20150,7 +20146,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>24-306</t>
+          <t>24-307</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -20231,7 +20227,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>18-076</t>
+          <t>18-077</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -20312,7 +20308,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>30-052</t>
+          <t>30-053</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -20393,7 +20389,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>22-006</t>
+          <t>22-007</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -20474,7 +20470,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>29-360</t>
+          <t>29-361</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -20555,7 +20551,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>22-116</t>
+          <t>22-117</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -20989,7 +20985,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>33-016</t>
+          <t>33-017</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -21070,7 +21066,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>27-224</t>
+          <t>27-225</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -21151,7 +21147,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>28-321</t>
+          <t>28-322</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -21232,7 +21228,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>25-079</t>
+          <t>25-080</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -21313,7 +21309,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>33-319</t>
+          <t>33-320</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -21394,7 +21390,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>24-235</t>
+          <t>24-236</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -21475,7 +21471,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>28-219</t>
+          <t>28-220</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -21556,7 +21552,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>28-293</t>
+          <t>28-294</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -21637,7 +21633,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>29-078</t>
+          <t>29-079</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -21718,7 +21714,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>27-034</t>
+          <t>27-035</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -21799,7 +21795,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>29-054</t>
+          <t>29-055</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -21880,7 +21876,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>29-162</t>
+          <t>29-163</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -21961,7 +21957,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>29-105</t>
+          <t>29-106</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -22042,7 +22038,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>28-070</t>
+          <t>28-071</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -22123,7 +22119,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>27-363</t>
+          <t>27-364</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -22204,7 +22200,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>23-320</t>
+          <t>23-321</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -22285,7 +22281,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>25-100</t>
+          <t>25-101</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -22366,7 +22362,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>34-059</t>
+          <t>34-060</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -22447,7 +22443,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>25-123</t>
+          <t>25-124</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -22528,7 +22524,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>36-223</t>
+          <t>36-224</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -22609,7 +22605,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>24-306</t>
+          <t>24-307</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -22690,7 +22686,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>18-076</t>
+          <t>18-077</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -22771,7 +22767,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>30-052</t>
+          <t>30-053</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -22852,7 +22848,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>22-006</t>
+          <t>22-007</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -22931,7 +22927,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>29-360</t>
+          <t>29-361</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -23010,7 +23006,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>22-116</t>
+          <t>22-117</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -23465,7 +23461,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>33-016</t>
+          <t>33-017</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -23560,7 +23556,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>27-224</t>
+          <t>27-225</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -23659,7 +23655,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>28-321</t>
+          <t>28-322</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -23758,7 +23754,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>25-079</t>
+          <t>25-080</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -23857,7 +23853,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>33-319</t>
+          <t>33-320</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -23956,7 +23952,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>24-235</t>
+          <t>24-236</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -24055,7 +24051,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>28-219</t>
+          <t>28-220</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -24154,7 +24150,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>28-293</t>
+          <t>28-294</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -24253,7 +24249,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>29-078</t>
+          <t>29-079</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -24352,7 +24348,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>27-034</t>
+          <t>27-035</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -24451,7 +24447,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>29-054</t>
+          <t>29-055</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -24550,7 +24546,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>29-162</t>
+          <t>29-163</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -24649,7 +24645,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>29-105</t>
+          <t>29-106</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -24748,7 +24744,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>28-070</t>
+          <t>28-071</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -24847,7 +24843,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>27-363</t>
+          <t>27-364</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -24946,7 +24942,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>23-320</t>
+          <t>23-321</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -25045,7 +25041,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>25-100</t>
+          <t>25-101</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -25144,7 +25140,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>34-059</t>
+          <t>34-060</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -25243,7 +25239,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>25-123</t>
+          <t>25-124</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -25338,7 +25334,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>36-223</t>
+          <t>36-224</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -25437,7 +25433,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>24-306</t>
+          <t>24-307</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -25536,7 +25532,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>18-076</t>
+          <t>18-077</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -25635,7 +25631,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>30-052</t>
+          <t>30-053</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -25734,7 +25730,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>22-006</t>
+          <t>22-007</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -25833,7 +25829,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>29-360</t>
+          <t>29-361</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -25932,7 +25928,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>22-116</t>
+          <t>22-117</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -26229,14 +26225,10 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 4_level_0</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>Playing Time</t>
         </is>
       </c>
+      <c r="G1" s="1" t="n"/>
       <c r="H1" s="1" t="n"/>
       <c r="I1" s="1" t="n"/>
       <c r="J1" s="1" t="inlineStr">
@@ -26480,7 +26472,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>33-016</t>
+          <t>33-017</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -26597,7 +26589,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>27-224</t>
+          <t>27-225</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -26714,7 +26706,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>28-321</t>
+          <t>28-322</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -26831,7 +26823,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>25-079</t>
+          <t>25-080</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -26948,7 +26940,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>33-319</t>
+          <t>33-320</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -27065,7 +27057,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>24-235</t>
+          <t>24-236</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -27182,7 +27174,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>28-219</t>
+          <t>28-220</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -27299,7 +27291,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>28-293</t>
+          <t>28-294</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -27416,7 +27408,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>29-078</t>
+          <t>29-079</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -27533,7 +27525,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>27-034</t>
+          <t>27-035</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -27650,7 +27642,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>29-054</t>
+          <t>29-055</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -27767,7 +27759,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>29-162</t>
+          <t>29-163</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -27884,7 +27876,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>29-105</t>
+          <t>29-106</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -28001,7 +27993,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>28-070</t>
+          <t>28-071</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -28118,7 +28110,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>27-363</t>
+          <t>27-364</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -28235,7 +28227,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>23-320</t>
+          <t>23-321</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -28352,7 +28344,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>25-100</t>
+          <t>25-101</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -28469,7 +28461,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>34-059</t>
+          <t>34-060</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -28586,7 +28578,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>25-123</t>
+          <t>25-124</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -28703,7 +28695,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>36-223</t>
+          <t>36-224</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -28820,7 +28812,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>24-306</t>
+          <t>24-307</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -28937,7 +28929,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>18-076</t>
+          <t>18-077</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -29054,7 +29046,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>30-052</t>
+          <t>30-053</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -29171,7 +29163,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>22-006</t>
+          <t>22-007</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -29288,7 +29280,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>29-360</t>
+          <t>29-361</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -29405,7 +29397,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>22-116</t>
+          <t>22-117</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -29522,7 +29514,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>18-013</t>
+          <t>18-014</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -29585,7 +29577,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>26-170</t>
+          <t>26-171</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -29840,9 +29832,9 @@
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="Y1:AH1"/>
+    <mergeCell ref="F1:I1"/>
     <mergeCell ref="R1:U1"/>
     <mergeCell ref="J1:Q1"/>
-    <mergeCell ref="G1:I1"/>
     <mergeCell ref="V1:X1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Teams/Fulham_stats.xlsx
+++ b/Teams/Fulham_stats.xlsx
@@ -7,16 +7,16 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Matches" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Standard Stats" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Shooting Stats" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Passing Stats" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pass Types" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Goal &amp; Shot Creation" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Defensive Actions" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Possession" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Playing Time" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Miscellaneous Stats" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Standard Stats" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Shooting Stats" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Passing Stats" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pass Types" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Goal &amp; Shot Creation" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Defensive Actions" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Possession" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Playing Time" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Miscellaneous Stats" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet_9" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3636,7 +3636,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -3994,7 +3994,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>33-020</t>
+          <t>33-023</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -4065,7 +4065,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>27-228</t>
+          <t>27-231</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -4136,7 +4136,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>28-325</t>
+          <t>28-328</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -4207,7 +4207,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>25-083</t>
+          <t>25-086</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -4278,7 +4278,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>33-323</t>
+          <t>33-326</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -4349,7 +4349,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>24-239</t>
+          <t>24-242</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -4420,7 +4420,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>28-223</t>
+          <t>28-226</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -4491,7 +4491,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>28-297</t>
+          <t>28-300</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -4562,7 +4562,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>29-082</t>
+          <t>29-085</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>27-038</t>
+          <t>27-041</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -4704,7 +4704,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>29-058</t>
+          <t>29-061</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -4775,7 +4775,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>29-166</t>
+          <t>29-169</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -4846,7 +4846,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>29-109</t>
+          <t>29-112</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -4917,7 +4917,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>28-074</t>
+          <t>28-077</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -4988,7 +4988,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>28-002</t>
+          <t>28-005</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -5059,7 +5059,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>23-324</t>
+          <t>23-327</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -5130,7 +5130,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>25-104</t>
+          <t>25-107</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -5201,7 +5201,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>34-063</t>
+          <t>34-066</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>25-127</t>
+          <t>25-130</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -5343,7 +5343,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>36-227</t>
+          <t>36-230</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -5414,7 +5414,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>24-310</t>
+          <t>24-313</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -5485,7 +5485,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>18-080</t>
+          <t>18-083</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -5554,7 +5554,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>30-056</t>
+          <t>30-059</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -5625,7 +5625,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>22-010</t>
+          <t>22-013</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -5696,7 +5696,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>29-364</t>
+          <t>30-002</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -5765,7 +5765,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>22-120</t>
+          <t>22-123</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -5897,7 +5897,7 @@
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>27.0</t>
+          <t>27.1</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -5981,12 +5981,12 @@
       <c r="B1" s="1" t="inlineStr"/>
       <c r="C1" s="1" t="n"/>
       <c r="D1" s="1" t="n"/>
-      <c r="E1" s="1" t="n"/>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Playing Time</t>
         </is>
       </c>
+      <c r="F1" s="1" t="n"/>
       <c r="G1" s="1" t="n"/>
       <c r="H1" s="1" t="n"/>
       <c r="I1" s="1" t="inlineStr">
@@ -6210,7 +6210,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>33-020</t>
+          <t>33-023</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -6317,7 +6317,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>27-228</t>
+          <t>27-231</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>28-325</t>
+          <t>28-328</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -6531,7 +6531,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>25-083</t>
+          <t>25-086</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -6638,7 +6638,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>33-323</t>
+          <t>33-326</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -6745,7 +6745,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>24-239</t>
+          <t>24-242</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -6852,7 +6852,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>28-223</t>
+          <t>28-226</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -6959,7 +6959,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>28-297</t>
+          <t>28-300</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -7066,7 +7066,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>29-082</t>
+          <t>29-085</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -7173,7 +7173,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>27-038</t>
+          <t>27-041</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -7280,7 +7280,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>29-058</t>
+          <t>29-061</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -7387,7 +7387,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>29-166</t>
+          <t>29-169</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -7494,7 +7494,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>29-109</t>
+          <t>29-112</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -7601,7 +7601,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>28-074</t>
+          <t>28-077</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -7708,7 +7708,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>28-002</t>
+          <t>28-005</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -7815,7 +7815,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>23-324</t>
+          <t>23-327</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -7922,7 +7922,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>25-104</t>
+          <t>25-107</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -8029,7 +8029,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>34-063</t>
+          <t>34-066</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -8136,7 +8136,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>25-127</t>
+          <t>25-130</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -8243,7 +8243,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>36-227</t>
+          <t>36-230</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -8350,7 +8350,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>24-310</t>
+          <t>24-313</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -8457,7 +8457,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>18-080</t>
+          <t>18-083</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -8564,7 +8564,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>30-056</t>
+          <t>30-059</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -8671,7 +8671,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>22-010</t>
+          <t>22-013</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -8778,7 +8778,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>29-364</t>
+          <t>30-002</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -8885,7 +8885,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>22-120</t>
+          <t>22-123</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -8992,7 +8992,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>18-017</t>
+          <t>18-020</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -9045,7 +9045,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>26-174</t>
+          <t>26-177</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -9197,7 +9197,7 @@
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>27.0</t>
+          <t>27.1</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -9290,10 +9290,10 @@
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B1:E1"/>
     <mergeCell ref="U1:W1"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="B1:D1"/>
     <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="E1:H1"/>
     <mergeCell ref="X1:AG1"/>
     <mergeCell ref="I1:P1"/>
   </mergeCells>
@@ -9471,7 +9471,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>33-020</t>
+          <t>33-023</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -9535,7 +9535,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>27-228</t>
+          <t>27-231</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -9609,7 +9609,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>28-325</t>
+          <t>28-328</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -9683,7 +9683,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>25-083</t>
+          <t>25-086</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -9757,7 +9757,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>33-323</t>
+          <t>33-326</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -9831,7 +9831,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>24-239</t>
+          <t>24-242</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -9905,7 +9905,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>28-223</t>
+          <t>28-226</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -9979,7 +9979,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>28-297</t>
+          <t>28-300</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -10053,7 +10053,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>29-082</t>
+          <t>29-085</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -10127,7 +10127,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>27-038</t>
+          <t>27-041</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -10199,7 +10199,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>29-058</t>
+          <t>29-061</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -10273,7 +10273,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>29-166</t>
+          <t>29-169</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -10347,7 +10347,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>29-109</t>
+          <t>29-112</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -10421,7 +10421,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>28-074</t>
+          <t>28-077</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -10495,7 +10495,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>28-002</t>
+          <t>28-005</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -10569,7 +10569,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>23-324</t>
+          <t>23-327</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -10643,7 +10643,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>25-104</t>
+          <t>25-107</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -10717,7 +10717,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>34-063</t>
+          <t>34-066</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -10791,7 +10791,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>25-127</t>
+          <t>25-130</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -10855,7 +10855,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>36-227</t>
+          <t>36-230</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -10927,7 +10927,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>24-310</t>
+          <t>24-313</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -11001,7 +11001,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>18-080</t>
+          <t>18-083</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -11073,7 +11073,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>30-056</t>
+          <t>30-059</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -11147,7 +11147,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>22-010</t>
+          <t>22-013</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -11211,7 +11211,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>29-364</t>
+          <t>30-002</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -11285,7 +11285,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>22-120</t>
+          <t>22-123</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -11415,7 +11415,7 @@
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>27.0</t>
+          <t>27.1</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -11701,7 +11701,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>33-020</t>
+          <t>33-023</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -11793,7 +11793,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>27-228</t>
+          <t>27-231</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -11885,7 +11885,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>28-325</t>
+          <t>28-328</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -11977,7 +11977,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>25-083</t>
+          <t>25-086</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -12069,7 +12069,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>33-323</t>
+          <t>33-326</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -12161,7 +12161,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>24-239</t>
+          <t>24-242</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -12253,7 +12253,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>28-223</t>
+          <t>28-226</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -12345,7 +12345,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>28-297</t>
+          <t>28-300</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -12437,7 +12437,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>29-082</t>
+          <t>29-085</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -12529,7 +12529,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>27-038</t>
+          <t>27-041</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -12621,7 +12621,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>29-058</t>
+          <t>29-061</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -12713,7 +12713,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>29-166</t>
+          <t>29-169</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -12805,7 +12805,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>29-109</t>
+          <t>29-112</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -12897,7 +12897,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>28-074</t>
+          <t>28-077</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -12989,7 +12989,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>28-002</t>
+          <t>28-005</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -13081,7 +13081,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>23-324</t>
+          <t>23-327</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -13173,7 +13173,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>25-104</t>
+          <t>25-107</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -13265,7 +13265,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>34-063</t>
+          <t>34-066</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -13357,7 +13357,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>25-127</t>
+          <t>25-130</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -13449,7 +13449,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>36-227</t>
+          <t>36-230</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -13541,7 +13541,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>24-310</t>
+          <t>24-313</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -13633,7 +13633,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>18-080</t>
+          <t>18-083</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -13725,7 +13725,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>30-056</t>
+          <t>30-059</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -13817,7 +13817,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>22-010</t>
+          <t>22-013</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -13909,7 +13909,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>29-364</t>
+          <t>30-002</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -13997,7 +13997,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>22-120</t>
+          <t>22-123</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -14165,7 +14165,7 @@
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>27.0</t>
+          <t>27.1</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -14416,7 +14416,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>33-020</t>
+          <t>33-023</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -14484,7 +14484,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>27-228</t>
+          <t>27-231</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -14552,7 +14552,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>28-325</t>
+          <t>28-328</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -14620,7 +14620,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>25-083</t>
+          <t>25-086</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -14688,7 +14688,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>33-323</t>
+          <t>33-326</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -14756,7 +14756,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>24-239</t>
+          <t>24-242</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -14824,7 +14824,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>28-223</t>
+          <t>28-226</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -14892,7 +14892,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>28-297</t>
+          <t>28-300</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -14960,7 +14960,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>29-082</t>
+          <t>29-085</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -15028,7 +15028,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>27-038</t>
+          <t>27-041</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -15096,7 +15096,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>29-058</t>
+          <t>29-061</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -15164,7 +15164,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>29-166</t>
+          <t>29-169</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -15232,7 +15232,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>29-109</t>
+          <t>29-112</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -15300,7 +15300,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>28-074</t>
+          <t>28-077</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -15368,7 +15368,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>28-002</t>
+          <t>28-005</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -15436,7 +15436,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>23-324</t>
+          <t>23-327</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -15504,7 +15504,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>25-104</t>
+          <t>25-107</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -15572,7 +15572,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>34-063</t>
+          <t>34-066</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -15640,7 +15640,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>25-127</t>
+          <t>25-130</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -15708,7 +15708,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>36-227</t>
+          <t>36-230</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -15776,7 +15776,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>24-310</t>
+          <t>24-313</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -15844,7 +15844,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>18-080</t>
+          <t>18-083</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -15912,7 +15912,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>30-056</t>
+          <t>30-059</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -15980,7 +15980,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>22-010</t>
+          <t>22-013</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -16048,7 +16048,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>29-364</t>
+          <t>30-002</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -16116,7 +16116,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>22-120</t>
+          <t>22-123</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -16244,7 +16244,7 @@
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>27.0</t>
+          <t>27.1</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -16479,7 +16479,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>33-020</t>
+          <t>33-023</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -16550,7 +16550,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>27-228</t>
+          <t>27-231</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -16621,7 +16621,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>28-325</t>
+          <t>28-328</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -16692,7 +16692,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>25-083</t>
+          <t>25-086</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -16763,7 +16763,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>33-323</t>
+          <t>33-326</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -16834,7 +16834,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>24-239</t>
+          <t>24-242</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -16905,7 +16905,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>28-223</t>
+          <t>28-226</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -16976,7 +16976,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>28-297</t>
+          <t>28-300</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -17047,7 +17047,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>29-082</t>
+          <t>29-085</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -17118,7 +17118,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>27-038</t>
+          <t>27-041</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -17189,7 +17189,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>29-058</t>
+          <t>29-061</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -17260,7 +17260,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>29-166</t>
+          <t>29-169</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -17331,7 +17331,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>29-109</t>
+          <t>29-112</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -17402,7 +17402,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>28-074</t>
+          <t>28-077</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -17473,7 +17473,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>28-002</t>
+          <t>28-005</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -17544,7 +17544,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>23-324</t>
+          <t>23-327</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -17615,7 +17615,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>25-104</t>
+          <t>25-107</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -17686,7 +17686,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>34-063</t>
+          <t>34-066</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -17757,7 +17757,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>25-127</t>
+          <t>25-130</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -17828,7 +17828,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>36-227</t>
+          <t>36-230</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -17899,7 +17899,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>24-310</t>
+          <t>24-313</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -17970,7 +17970,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>18-080</t>
+          <t>18-083</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -18041,7 +18041,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>30-056</t>
+          <t>30-059</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -18112,7 +18112,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>22-010</t>
+          <t>22-013</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -18183,7 +18183,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>29-364</t>
+          <t>30-002</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -18254,7 +18254,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>22-120</t>
+          <t>22-123</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -18388,7 +18388,7 @@
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>27.0</t>
+          <t>27.1</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -18623,7 +18623,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>33-020</t>
+          <t>33-023</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -18694,7 +18694,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>27-228</t>
+          <t>27-231</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -18765,7 +18765,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>28-325</t>
+          <t>28-328</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -18836,7 +18836,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>25-083</t>
+          <t>25-086</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -18907,7 +18907,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>33-323</t>
+          <t>33-326</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -18978,7 +18978,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>24-239</t>
+          <t>24-242</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -19049,7 +19049,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>28-223</t>
+          <t>28-226</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -19120,7 +19120,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>28-297</t>
+          <t>28-300</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -19191,7 +19191,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>29-082</t>
+          <t>29-085</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -19262,7 +19262,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>27-038</t>
+          <t>27-041</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -19333,7 +19333,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>29-058</t>
+          <t>29-061</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -19404,7 +19404,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>29-166</t>
+          <t>29-169</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -19475,7 +19475,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>29-109</t>
+          <t>29-112</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -19546,7 +19546,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>28-074</t>
+          <t>28-077</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -19617,7 +19617,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>28-002</t>
+          <t>28-005</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -19688,7 +19688,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>23-324</t>
+          <t>23-327</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -19759,7 +19759,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>25-104</t>
+          <t>25-107</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -19830,7 +19830,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>34-063</t>
+          <t>34-066</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -19901,7 +19901,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>25-127</t>
+          <t>25-130</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -19972,7 +19972,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>36-227</t>
+          <t>36-230</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -20043,7 +20043,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>24-310</t>
+          <t>24-313</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -20114,7 +20114,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>18-080</t>
+          <t>18-083</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -20185,7 +20185,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>30-056</t>
+          <t>30-059</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -20256,7 +20256,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>22-010</t>
+          <t>22-013</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -20325,7 +20325,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>29-364</t>
+          <t>30-002</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -20394,7 +20394,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>22-120</t>
+          <t>22-123</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -20526,7 +20526,7 @@
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>27.0</t>
+          <t>27.1</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -20800,7 +20800,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>33-020</t>
+          <t>33-023</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -20885,7 +20885,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>27-228</t>
+          <t>27-231</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -20974,7 +20974,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>28-325</t>
+          <t>28-328</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -21063,7 +21063,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>25-083</t>
+          <t>25-086</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -21152,7 +21152,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>33-323</t>
+          <t>33-326</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -21241,7 +21241,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>24-239</t>
+          <t>24-242</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -21330,7 +21330,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>28-223</t>
+          <t>28-226</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -21419,7 +21419,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>28-297</t>
+          <t>28-300</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -21508,7 +21508,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>29-082</t>
+          <t>29-085</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -21597,7 +21597,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>27-038</t>
+          <t>27-041</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -21686,7 +21686,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>29-058</t>
+          <t>29-061</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -21775,7 +21775,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>29-166</t>
+          <t>29-169</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -21864,7 +21864,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>29-109</t>
+          <t>29-112</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -21953,7 +21953,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>28-074</t>
+          <t>28-077</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -22042,7 +22042,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>28-002</t>
+          <t>28-005</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -22131,7 +22131,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>23-324</t>
+          <t>23-327</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -22220,7 +22220,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>25-104</t>
+          <t>25-107</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -22309,7 +22309,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>34-063</t>
+          <t>34-066</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -22398,7 +22398,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>25-127</t>
+          <t>25-130</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -22483,7 +22483,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>36-227</t>
+          <t>36-230</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -22572,7 +22572,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>24-310</t>
+          <t>24-313</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -22661,7 +22661,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>18-080</t>
+          <t>18-083</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -22750,7 +22750,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>30-056</t>
+          <t>30-059</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -22839,7 +22839,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>22-010</t>
+          <t>22-013</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -22928,7 +22928,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>29-364</t>
+          <t>30-002</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -23017,7 +23017,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>22-120</t>
+          <t>22-123</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -23183,7 +23183,7 @@
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>27.0</t>
+          <t>27.1</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -23287,12 +23287,12 @@
       <c r="B1" s="1" t="inlineStr"/>
       <c r="C1" s="1" t="n"/>
       <c r="D1" s="1" t="n"/>
-      <c r="E1" s="1" t="n"/>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Playing Time</t>
         </is>
       </c>
+      <c r="F1" s="1" t="n"/>
       <c r="G1" s="1" t="n"/>
       <c r="H1" s="1" t="n"/>
       <c r="I1" s="1" t="inlineStr">
@@ -23516,7 +23516,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>33-020</t>
+          <t>33-023</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -23623,7 +23623,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>27-228</t>
+          <t>27-231</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -23730,7 +23730,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>28-325</t>
+          <t>28-328</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -23837,7 +23837,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>25-083</t>
+          <t>25-086</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -23944,7 +23944,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>33-323</t>
+          <t>33-326</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -24051,7 +24051,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>24-239</t>
+          <t>24-242</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -24158,7 +24158,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>28-223</t>
+          <t>28-226</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -24265,7 +24265,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>28-297</t>
+          <t>28-300</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -24372,7 +24372,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>29-082</t>
+          <t>29-085</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -24479,7 +24479,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>27-038</t>
+          <t>27-041</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -24586,7 +24586,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>29-058</t>
+          <t>29-061</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -24693,7 +24693,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>29-166</t>
+          <t>29-169</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -24800,7 +24800,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>29-109</t>
+          <t>29-112</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -24907,7 +24907,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>28-074</t>
+          <t>28-077</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -25014,7 +25014,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>28-002</t>
+          <t>28-005</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -25121,7 +25121,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>23-324</t>
+          <t>23-327</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -25228,7 +25228,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>25-104</t>
+          <t>25-107</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -25335,7 +25335,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>34-063</t>
+          <t>34-066</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -25442,7 +25442,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>25-127</t>
+          <t>25-130</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -25549,7 +25549,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>36-227</t>
+          <t>36-230</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -25656,7 +25656,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>24-310</t>
+          <t>24-313</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -25763,7 +25763,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>18-080</t>
+          <t>18-083</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -25870,7 +25870,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>30-056</t>
+          <t>30-059</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -25977,7 +25977,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>22-010</t>
+          <t>22-013</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -26084,7 +26084,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>29-364</t>
+          <t>30-002</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -26191,7 +26191,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>22-120</t>
+          <t>22-123</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -26298,7 +26298,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>18-017</t>
+          <t>18-020</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -26351,7 +26351,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>26-174</t>
+          <t>26-177</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -26503,7 +26503,7 @@
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>27.0</t>
+          <t>27.1</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -26596,10 +26596,10 @@
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B1:E1"/>
     <mergeCell ref="U1:W1"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="B1:D1"/>
     <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="E1:H1"/>
     <mergeCell ref="X1:AG1"/>
     <mergeCell ref="I1:P1"/>
   </mergeCells>
